--- a/Data/总结报表.xlsx
+++ b/Data/总结报表.xlsx
@@ -17,12 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="96">
   <si>
     <t>主管医生</t>
   </si>
   <si>
-    <t>38位医生办理日间手术</t>
+    <t>49位医生办理日间手术</t>
   </si>
   <si>
     <t>吴华荣</t>
@@ -49,55 +49,64 @@
     <t>张尚普</t>
   </si>
   <si>
+    <t>白栩搏</t>
+  </si>
+  <si>
     <t>陈子奇</t>
   </si>
   <si>
     <t>潘来辉</t>
   </si>
   <si>
-    <t>白栩搏</t>
+    <t>贾丁丁</t>
+  </si>
+  <si>
+    <t>张连锁</t>
   </si>
   <si>
     <t>刘阳</t>
   </si>
   <si>
-    <t>贾丁丁</t>
-  </si>
-  <si>
-    <t>张连锁</t>
+    <t>孙亚东</t>
+  </si>
+  <si>
+    <t>刘学沛</t>
   </si>
   <si>
     <t>宁胜华</t>
   </si>
   <si>
-    <t>孙亚东</t>
-  </si>
-  <si>
-    <t>刘学沛</t>
+    <t>游小军</t>
   </si>
   <si>
     <t>张昕</t>
   </si>
   <si>
-    <t>游小军</t>
-  </si>
-  <si>
     <t>李琰</t>
   </si>
   <si>
     <t>范会龙</t>
   </si>
   <si>
+    <t>李继凯</t>
+  </si>
+  <si>
     <t>郝运兵</t>
   </si>
   <si>
+    <t>王少锋</t>
+  </si>
+  <si>
+    <t>白杰</t>
+  </si>
+  <si>
     <t>刘庆辉</t>
   </si>
   <si>
-    <t>白杰</t>
-  </si>
-  <si>
-    <t>李继凯</t>
+    <t>王学攀</t>
+  </si>
+  <si>
+    <t>郭二松</t>
   </si>
   <si>
     <t>张翼飞</t>
@@ -106,37 +115,61 @@
     <t>赵书明</t>
   </si>
   <si>
-    <t>郭二松</t>
-  </si>
-  <si>
     <t>魏召劝</t>
   </si>
   <si>
+    <t>李少青</t>
+  </si>
+  <si>
     <t>刘月星</t>
   </si>
   <si>
-    <t>王学攀</t>
+    <t>刘林周</t>
+  </si>
+  <si>
+    <t>薛晓乐</t>
+  </si>
+  <si>
+    <t>高文华</t>
   </si>
   <si>
     <t>朱文博</t>
   </si>
   <si>
+    <t>张辰阳</t>
+  </si>
+  <si>
+    <t>曲巧格</t>
+  </si>
+  <si>
     <t>王振辉</t>
   </si>
   <si>
     <t>赵鹏浩</t>
   </si>
   <si>
-    <t>曲巧格</t>
-  </si>
-  <si>
-    <t>张辰阳</t>
+    <t>高勇岗</t>
+  </si>
+  <si>
+    <t>程子文</t>
   </si>
   <si>
     <t>刘学亮</t>
   </si>
   <si>
-    <t>高文华</t>
+    <t>段智睿</t>
+  </si>
+  <si>
+    <t>刘玉波</t>
+  </si>
+  <si>
+    <t>王冬月</t>
+  </si>
+  <si>
+    <t>申军国</t>
+  </si>
+  <si>
+    <t>程旭</t>
   </si>
   <si>
     <t>医生总数</t>
@@ -148,7 +181,7 @@
     <t>负责科室</t>
   </si>
   <si>
-    <t>11个科室办理日间手术</t>
+    <t>13个科室办理日间手术</t>
   </si>
   <si>
     <t>骨六科</t>
@@ -166,28 +199,34 @@
     <t>骨七科</t>
   </si>
   <si>
+    <t>骨一科</t>
+  </si>
+  <si>
     <t>骨二科</t>
   </si>
   <si>
-    <t>骨一科</t>
-  </si>
-  <si>
     <t>骨三科</t>
   </si>
   <si>
+    <t>骨四科</t>
+  </si>
+  <si>
+    <t>骨五科</t>
+  </si>
+  <si>
     <t>外一科</t>
   </si>
   <si>
+    <t>骨八科</t>
+  </si>
+  <si>
     <t>骨十科</t>
   </si>
   <si>
-    <t>骨八科</t>
-  </si>
-  <si>
     <t>科室总数</t>
   </si>
   <si>
-    <t>61位医生办理预住院</t>
+    <t>71位医生办理预住院</t>
   </si>
   <si>
     <t>曹旭阳</t>
@@ -196,82 +235,76 @@
     <t>贾科锋</t>
   </si>
   <si>
+    <t>孔涛涛</t>
+  </si>
+  <si>
     <t>陈润</t>
   </si>
   <si>
-    <t>孔涛涛</t>
-  </si>
-  <si>
     <t>郎彦飞</t>
   </si>
   <si>
     <t>左百军</t>
   </si>
   <si>
-    <t>刘玉波</t>
+    <t>赵玉龙</t>
   </si>
   <si>
     <t>王彦伟</t>
   </si>
   <si>
-    <t>赵玉龙</t>
-  </si>
-  <si>
     <t>吕庆列</t>
   </si>
   <si>
+    <t>李向科</t>
+  </si>
+  <si>
     <t>李栋</t>
   </si>
   <si>
-    <t>李向科</t>
+    <t>侯心昕</t>
   </si>
   <si>
     <t>李德磊</t>
   </si>
   <si>
+    <t>范永强</t>
+  </si>
+  <si>
+    <t>王洪庆</t>
+  </si>
+  <si>
     <t>杨良栋</t>
   </si>
   <si>
-    <t>王洪庆</t>
-  </si>
-  <si>
-    <t>范永强</t>
-  </si>
-  <si>
     <t>何举仁</t>
   </si>
   <si>
-    <t>李少青</t>
-  </si>
-  <si>
-    <t>侯心昕</t>
+    <t>李强</t>
   </si>
   <si>
     <t>陈国江</t>
   </si>
   <si>
+    <t>高少科</t>
+  </si>
+  <si>
     <t>郭志刚</t>
   </si>
   <si>
-    <t>李强</t>
-  </si>
-  <si>
-    <t>王少锋</t>
-  </si>
-  <si>
-    <t>15个科室办理预住院</t>
+    <t>孙国栋</t>
+  </si>
+  <si>
+    <t>16个科室办理预住院</t>
   </si>
   <si>
     <t>骨十二科</t>
   </si>
   <si>
-    <t>骨四科</t>
-  </si>
-  <si>
     <t>骨十五科</t>
   </si>
   <si>
-    <t>骨五科</t>
+    <t>外四科</t>
   </si>
 </sst>
 </file>
@@ -603,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -630,7 +663,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -638,7 +671,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -646,7 +679,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -654,7 +687,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -662,7 +695,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -670,7 +703,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -678,7 +711,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -694,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -702,7 +735,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -710,7 +743,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -718,7 +751,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -726,7 +759,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -734,7 +767,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -742,7 +775,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -750,7 +783,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -758,7 +791,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -766,7 +799,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -774,7 +807,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -782,7 +815,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -790,7 +823,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -798,7 +831,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -806,7 +839,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -814,7 +847,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -822,7 +855,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -830,7 +863,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -838,7 +871,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -846,7 +879,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -854,7 +887,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -862,7 +895,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -870,7 +903,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -878,7 +911,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -886,7 +919,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -894,7 +927,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -902,7 +935,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -926,7 +959,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -934,7 +967,95 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>691</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>817</v>
       </c>
     </row>
   </sheetData>
@@ -944,7 +1065,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -952,114 +1073,130 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B2">
-        <v>308</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B3">
-        <v>174</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B4">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B5">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B14">
-        <v>691</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16">
+        <v>817</v>
       </c>
     </row>
   </sheetData>
@@ -1069,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1080,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1088,23 +1225,23 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>107</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B3">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1112,55 +1249,55 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1168,7 +1305,7 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1176,63 +1313,63 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="B15">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="B16">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B19">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1240,63 +1377,63 @@
         <v>12</v>
       </c>
       <c r="B21">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B23">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B25">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B26">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B28">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1304,132 +1441,132 @@
         <v>20</v>
       </c>
       <c r="B29">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B30">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -1437,79 +1574,79 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1517,7 +1654,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -1525,7 +1662,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1533,7 +1670,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1541,7 +1678,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1549,7 +1686,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1557,7 +1694,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -1565,7 +1702,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -1573,18 +1710,98 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="B63">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="B64">
-        <v>1352</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>49</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>50</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>51</v>
+      </c>
+      <c r="B73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>52</v>
+      </c>
+      <c r="B74">
+        <v>1610</v>
       </c>
     </row>
   </sheetData>
@@ -1594,7 +1811,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1602,95 +1819,95 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B2">
-        <v>370</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B3">
-        <v>340</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B4">
-        <v>332</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B5">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B6">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B7">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B8">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -1698,7 +1915,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -1706,42 +1923,50 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B18">
-        <v>1352</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19">
+        <v>1610</v>
       </c>
     </row>
   </sheetData>
